--- a/TLG Schedule Final.xlsx
+++ b/TLG Schedule Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjyoy\Downloads\Final Turn-in (Part 1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8736D3A-BF7A-43A0-AE4E-E7EA704E2DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B8FEB-7811-477D-B961-BE34E59742CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Production Schedule" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="192">
   <si>
     <t>Footsteps</t>
   </si>
@@ -222,21 +222,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>VFX</t>
-  </si>
-  <si>
-    <t>Particle Effect</t>
-  </si>
-  <si>
-    <t>Shader/ Particle Effect</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Lava Pool/ Shader</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -659,6 +644,21 @@
   </si>
   <si>
     <t>Game Art</t>
+  </si>
+  <si>
+    <t>UI &amp; Menu</t>
+  </si>
+  <si>
+    <t>Import into area 3 &amp; 4</t>
+  </si>
+  <si>
+    <t>Update Improve Minimap</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Setup death/ respawn screen</t>
   </si>
 </sst>
 </file>
@@ -1133,20 +1133,20 @@
   <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1186,12 +1186,12 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>35</v>
@@ -1206,7 +1206,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1366,15 +1366,15 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
@@ -1389,12 +1389,12 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>35</v>
@@ -1409,12 +1409,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>35</v>
@@ -1429,12 +1429,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>35</v>
@@ -1449,16 +1449,16 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="6"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>35</v>
@@ -1473,18 +1473,18 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
@@ -1493,12 +1493,12 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>35</v>
@@ -1513,12 +1513,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -1533,12 +1533,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>35</v>
@@ -1553,12 +1553,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>35</v>
@@ -1573,23 +1573,23 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>35</v>
@@ -1604,15 +1604,15 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>35</v>
@@ -1627,12 +1627,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -1647,12 +1647,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>35</v>
@@ -1667,12 +1667,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>35</v>
@@ -1687,420 +1687,420 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F34" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F38" s="4">
         <v>45199</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F39" s="4">
         <v>45212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F40" s="4">
         <v>45212</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
         <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F41" s="4">
         <v>45212</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
         <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F42" s="4">
         <v>45199</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
         <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F43" s="4">
         <v>45199</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
         <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F45" s="4">
         <v>45203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
         <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F46" s="4">
         <v>45203</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
         <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F47" s="4">
         <v>45224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
         <v>37</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F50" s="4">
         <v>45194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s">
         <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F51" s="4">
         <v>45194</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
         <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F52" s="4">
         <v>45217</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F55" s="4">
         <v>45184</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
         <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F58" s="4">
         <v>45217</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
         <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F59" s="4">
         <v>45217</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
         <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F60" s="4">
         <v>45217</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
         <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F61" s="4">
         <v>45217</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
         <v>48</v>
@@ -2112,15 +2112,15 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
@@ -2132,15 +2132,15 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -2152,15 +2152,15 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
         <v>48</v>
@@ -2172,29 +2172,29 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
         <v>39</v>
@@ -2203,176 +2203,164 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F71" s="4">
         <v>45199</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F72" s="4">
         <v>45199</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" t="s">
         <v>184</v>
       </c>
-      <c r="C75" t="s">
-        <v>189</v>
-      </c>
       <c r="D75" t="s">
         <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F75" s="4">
         <v>45259</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
         <v>37</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F76" s="4">
         <v>45259</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
         <v>37</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F77" s="4">
         <v>45259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
         <v>37</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F78" s="4">
         <v>45244</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
         <v>22</v>
-      </c>
-      <c r="C80" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B81" t="s">
-        <v>23</v>
       </c>
       <c r="C81" t="s">
         <v>42</v>
@@ -2381,32 +2369,32 @@
         <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>26</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
         <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
         <v>42</v>
@@ -2415,227 +2403,256 @@
         <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
         <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
         <v>42</v>
       </c>
       <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" t="s">
         <v>41</v>
       </c>
-      <c r="E85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88" t="s">
-        <v>57</v>
-      </c>
-      <c r="E88" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>54</v>
+      <c r="E86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
         <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" t="s">
         <v>42</v>
       </c>
-      <c r="D92" t="s">
-        <v>57</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" t="s">
-        <v>57</v>
-      </c>
-      <c r="E93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" t="s">
-        <v>117</v>
       </c>
       <c r="C94" t="s">
         <v>42</v>
       </c>
       <c r="D94" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="C95" t="s">
         <v>42</v>
       </c>
-      <c r="D97" t="s">
-        <v>57</v>
-      </c>
-      <c r="E97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
         <v>42</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>137</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" t="s">
         <v>140</v>
-      </c>
-      <c r="C101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>138</v>
-      </c>
-      <c r="B102" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" t="s">
-        <v>42</v>
-      </c>
-      <c r="D102" t="s">
-        <v>57</v>
-      </c>
-      <c r="E102" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>142</v>
-      </c>
-      <c r="B105" t="s">
-        <v>143</v>
       </c>
       <c r="C105" t="s">
         <v>42</v>
@@ -2644,66 +2661,66 @@
         <v>41</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
         <v>42</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E106" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C107" t="s">
         <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C108" t="s">
         <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E108" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
         <v>42</v>
@@ -2712,36 +2729,36 @@
         <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
         <v>42</v>
       </c>
       <c r="D110" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>37</v>
@@ -2753,15 +2770,15 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C114" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D114" t="s">
         <v>37</v>
@@ -2770,118 +2787,118 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
+        <v>71</v>
+      </c>
+      <c r="D116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" t="s">
+        <v>71</v>
+      </c>
+      <c r="D119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C115" t="s">
-        <v>76</v>
-      </c>
-      <c r="D115" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>75</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C116" t="s">
-        <v>76</v>
-      </c>
-      <c r="D116" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>75</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" t="s">
-        <v>76</v>
-      </c>
-      <c r="D117" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>75</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" t="s">
-        <v>76</v>
-      </c>
-      <c r="D118" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>75</v>
-      </c>
-      <c r="B119" s="11" t="s">
+      <c r="C120" t="s">
         <v>71</v>
-      </c>
-      <c r="C119" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C120" t="s">
-        <v>76</v>
       </c>
       <c r="D120" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D121" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F122" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C123" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D123" t="s">
         <v>37</v>
@@ -2893,15 +2910,15 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D124" t="s">
         <v>37</v>
@@ -2913,15 +2930,15 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C125" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D125" t="s">
         <v>37</v>
@@ -2933,15 +2950,15 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C126" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D126" t="s">
         <v>37</v>
@@ -2953,15 +2970,15 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D127" t="s">
         <v>37</v>
@@ -2973,15 +2990,15 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C128" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D128" t="s">
         <v>37</v>
@@ -2990,20 +3007,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F129" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C130" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D130" t="s">
         <v>37</v>
@@ -3015,15 +3032,15 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C131" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D131" t="s">
         <v>37</v>
@@ -3032,15 +3049,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C132" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D132" t="s">
         <v>37</v>
@@ -3052,15 +3069,15 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>27</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C133" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D133" t="s">
         <v>37</v>
@@ -3072,15 +3089,15 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>27</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D134" t="s">
         <v>37</v>
@@ -3092,15 +3109,15 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C135" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D135" t="s">
         <v>37</v>
@@ -3112,15 +3129,15 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D136" t="s">
         <v>37</v>
@@ -3129,51 +3146,51 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>27</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C138" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
       <c r="B139" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C139" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
       <c r="B140" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B142" s="15"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>92</v>
+      </c>
+      <c r="B143" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C140" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="15"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>97</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="C143" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D143" t="s">
         <v>37</v>
@@ -3182,15 +3199,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C144" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D144" t="s">
         <v>37</v>
@@ -3199,15 +3216,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C145" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D145" t="s">
         <v>37</v>
@@ -3216,15 +3233,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C146" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D146" t="s">
         <v>37</v>
@@ -3233,15 +3250,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C147" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D147" t="s">
         <v>37</v>
@@ -3250,12 +3267,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -3263,323 +3280,323 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E151" t="s">
         <v>51</v>
       </c>
       <c r="F151" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E152" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F152" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E153" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F153" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E154" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F154" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E155" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F155" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
       <c r="C156" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E156" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E159" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F159" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E160" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F160" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E161" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F161" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E162" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F162" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E163" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F163" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E164" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E167" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F167" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C168" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E168" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F168" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E169" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F169" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E170" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F170" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C171" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E171" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F173" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>50</v>
       </c>
       <c r="C174" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E174" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F176" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E177" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F177" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C178" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E178" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F178" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C179" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E179" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule Final.xlsx
+++ b/TLG Schedule Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonkb\Documents\GitHub\Anachronism-Entertainment\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B8FEB-7811-477D-B961-BE34E59742CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30276241-2CB4-4F55-92B4-70C42EFE04B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Production Schedule" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="193">
   <si>
     <t>Footsteps</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>Setup death/ respawn screen</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
 </sst>
 </file>
@@ -1132,21 +1135,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F946BC58-619D-4E0B-9456-469475FF7216}">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1366,10 +1369,10 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1449,11 +1452,11 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1573,18 +1576,18 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1604,10 +1607,10 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1687,15 +1690,15 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F34" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>186</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>186</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -1965,7 +1968,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -1996,12 +1999,12 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>186</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -2106,13 +2109,13 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="F62" s="4">
         <v>45264</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -2126,13 +2129,13 @@
         <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F63" s="4">
         <v>45264</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -2146,13 +2149,13 @@
         <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F64" s="4">
         <v>45264</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -2166,13 +2169,13 @@
         <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F65" s="4">
         <v>45264</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -2197,18 +2200,18 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="F68" s="4">
         <v>45264</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>186</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>186</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -2350,12 +2353,12 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>99</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>99</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2457,12 +2460,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -2513,12 +2516,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2552,12 +2555,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>132</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>133</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -2608,12 +2611,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>137</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>142</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>145</v>
       </c>
@@ -2749,8 +2752,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>70</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>70</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>70</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>70</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>70</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>70</v>
       </c>
@@ -2885,12 +2888,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F122" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -3007,12 +3010,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F129" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3179,10 +3182,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B142" s="15"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>92</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>92</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>92</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>92</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>92</v>
       </c>
@@ -3267,12 +3270,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>116</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>117</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>118</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>119</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>50</v>
       </c>
@@ -3544,12 +3547,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>120</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>121</v>
       </c>
@@ -3574,7 +3577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>123</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>122</v>
       </c>

--- a/TLG Schedule Final.xlsx
+++ b/TLG Schedule Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonkb\Documents\GitHub\Anachronism-Entertainment\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30276241-2CB4-4F55-92B4-70C42EFE04B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB667F4-FFC4-43C5-A362-01356F060928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Production Schedule" sheetId="6" r:id="rId1"/>
@@ -1135,21 +1135,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F946BC58-619D-4E0B-9456-469475FF7216}">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99:E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -1369,10 +1369,10 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1452,11 +1452,11 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="6"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1576,18 +1576,18 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="6"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1607,10 +1607,10 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1690,15 +1690,15 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F34" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>186</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>186</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>186</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -1999,12 +1999,12 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>186</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>186</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -2206,12 +2206,12 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>186</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>186</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>186</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -2353,12 +2353,12 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>99</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>99</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2460,12 +2460,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -2516,12 +2516,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2555,12 +2555,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>132</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>133</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -2608,15 +2608,15 @@
         <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>137</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>137</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>142</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>145</v>
       </c>
@@ -2752,8 +2752,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>70</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>70</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>70</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>70</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>70</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>70</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>70</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>70</v>
       </c>
@@ -2888,12 +2888,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F122" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -3010,12 +3010,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F129" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -3182,10 +3182,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B142" s="15"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>92</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>92</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>92</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>92</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>92</v>
       </c>
@@ -3270,12 +3270,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>116</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>117</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>118</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>119</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>50</v>
       </c>
@@ -3547,12 +3547,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>120</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>121</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>123</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>122</v>
       </c>
